--- a/data/trans_orig/P16B17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B17-Estudios-trans_orig.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentajes de tratamiento hormonal para la menopausia recetados en 2007 (tasa de respuesta: 91,67%)</t>
+          <t>Mujeres según si el tratamiento hormonal consumido para la menopausia fue recetado por el médico en 2007 (tasa de respuesta: 91,67%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -872,7 +872,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentajes de tratamiento hormonal para la menopausia recetados en 2012 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres según si el tratamiento hormonal consumido para la menopausia fue recetado por el médico en 2012 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1205,7 +1205,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentajes de tratamiento hormonal para la menopausia recetados en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres según si el tratamiento hormonal consumido para la menopausia fue recetado por el médico en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16B17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B17-Estudios-trans_orig.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres según si el tratamiento hormonal consumido para la menopausia fue recetado por el médico en 2007 (tasa de respuesta: 91,67%)</t>
+          <t>Mujeres con tratamiento hormonal para la menopausia recetado en 2007 (tasa de respuesta: 91,67%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -872,7 +872,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres según si el tratamiento hormonal consumido para la menopausia fue recetado por el médico en 2012 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres con tratamiento hormonal para la menopausia recetado en 2012 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1205,7 +1205,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres según si el tratamiento hormonal consumido para la menopausia fue recetado por el médico en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres con tratamiento hormonal para la menopausia recetado en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
